--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_FundProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_FundProfile_Regression_001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E5A4C0-CDE2-4C7D-A0A1-5400F93D33F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF1AAB2-77BB-4553-9626-1FBE37934E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -90,9 +90,6 @@
     <t>BackToList</t>
   </si>
   <si>
-    <t>NextProfile</t>
-  </si>
-  <si>
     <t>Open next profile</t>
   </si>
   <si>
@@ -111,10 +108,31 @@
     <t>User</t>
   </si>
   <si>
-    <t>TC_PM_COA_SEC_ListView_D3</t>
-  </si>
-  <si>
     <t>TC_PM_COA_SEC_DeleteProfile</t>
+  </si>
+  <si>
+    <t>TC_PM_COA_SEC_FundProfile_ListView</t>
+  </si>
+  <si>
+    <t>Nav_NextProfile_and_AddNewProfile</t>
+  </si>
+  <si>
+    <t>Adding New Profile Via Details Page</t>
+  </si>
+  <si>
+    <t>Recalling Existing Profile</t>
+  </si>
+  <si>
+    <t>Recall_Confirm</t>
+  </si>
+  <si>
+    <t>Confirm Alert Box</t>
+  </si>
+  <si>
+    <t>Login_Logout</t>
+  </si>
+  <si>
+    <t>Logging Out</t>
   </si>
 </sst>
 </file>
@@ -159,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,11 +200,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -195,6 +224,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,7 +512,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,10 +570,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -661,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -681,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -698,80 +730,156 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
